--- a/reference/nfcs_variable_reference.xlsx
+++ b/reference/nfcs_variable_reference.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\R\Projects\emergency-fund-model-nfcs\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36299EAA-69B5-4265-AA77-4639190D89C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9168AFA-B348-4597-B08D-BB68F65B3538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{62883055-AEF7-49C0-8478-D14780CEB821}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13230" xr2:uid="{62883055-AEF7-49C0-8478-D14780CEB821}"/>
   </bookViews>
   <sheets>
     <sheet name="nfcs_variable_reference" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nfcs_variable_reference!$A$1:$F$124</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="288">
   <si>
     <t>Variable Code</t>
   </si>
@@ -841,40 +844,49 @@
     <t>Buying a single company's stock usually provides a safer return than a stock mutual fund.</t>
   </si>
   <si>
-    <t>Survey</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>Income</t>
   </si>
   <si>
     <t>Employment</t>
   </si>
   <si>
-    <t>Financial Literacy</t>
-  </si>
-  <si>
-    <t>Financial Behavior</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>Retirement</t>
-  </si>
-  <si>
-    <t>Home</t>
+    <t>Credit &amp; Banking Access</t>
+  </si>
+  <si>
+    <t>Investing &amp; Retirement</t>
+  </si>
+  <si>
+    <t>Housing &amp; Real Estate</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Health &amp; Financial Barriers</t>
+  </si>
+  <si>
+    <t>Objective Financial Knowledge</t>
+  </si>
+  <si>
+    <t>Financial Education History</t>
+  </si>
+  <si>
+    <t>Financial Literacy Self-Perception</t>
+  </si>
+  <si>
+    <t>Financial Behavior &amp; Decision-Making</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Higher income correlates with savings capacity.</t>
+  </si>
+  <si>
+    <t>Unemployed individuals less likely to have an emergency fund.</t>
   </si>
 </sst>
 </file>
@@ -1718,17 +1730,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBAD781-C2CF-4135-BBF5-18D40FA6CC26}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="30.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
@@ -1752,7 +1766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
@@ -1766,9 +1780,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1780,7 +1794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>273</v>
       </c>
@@ -1794,7 +1808,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>273</v>
       </c>
@@ -1808,9 +1822,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
@@ -1822,9 +1836,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>33</v>
@@ -1836,9 +1850,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>36</v>
@@ -1850,9 +1864,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -1864,9 +1878,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>42</v>
@@ -1878,9 +1892,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>43</v>
@@ -1892,9 +1906,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>48</v>
@@ -1906,9 +1920,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>51</v>
@@ -1920,9 +1934,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>53</v>
@@ -1934,9 +1948,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>56</v>
@@ -1947,10 +1961,16 @@
       <c r="D15" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>59</v>
@@ -1962,14 +1982,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>63</v>
@@ -1980,10 +2000,16 @@
       <c r="D18" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>66</v>
@@ -1995,9 +2021,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>69</v>
@@ -2008,10 +2034,16 @@
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>70</v>
@@ -2020,7 +2052,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>275</v>
       </c>
@@ -2034,10 +2066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>278</v>
-      </c>
+    <row r="23" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="C23" s="1" t="s">
         <v>74</v>
       </c>
@@ -2045,9 +2074,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>81</v>
@@ -2059,9 +2088,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>80</v>
@@ -2073,9 +2102,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>85</v>
@@ -2087,9 +2116,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>88</v>
@@ -2101,9 +2130,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>89</v>
@@ -2112,9 +2141,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>91</v>
@@ -2123,9 +2152,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>93</v>
@@ -2134,9 +2163,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>95</v>
@@ -2145,9 +2174,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>97</v>
@@ -2156,9 +2185,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>99</v>
@@ -2167,9 +2196,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>101</v>
@@ -2178,9 +2207,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>103</v>
@@ -2189,9 +2218,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>105</v>
@@ -2200,9 +2229,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>107</v>
@@ -2211,9 +2240,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>109</v>
@@ -2222,9 +2251,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>111</v>
@@ -2233,9 +2262,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>113</v>
@@ -2244,9 +2273,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -2255,9 +2284,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>116</v>
@@ -2266,9 +2295,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>118</v>
@@ -2277,9 +2306,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>120</v>
@@ -2288,9 +2317,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>122</v>
@@ -2299,9 +2328,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>124</v>
@@ -2310,9 +2339,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>6</v>
@@ -2323,7 +2352,7 @@
     </row>
     <row r="48" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>127</v>
@@ -2332,9 +2361,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
@@ -2343,9 +2372,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -2354,9 +2383,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>9</v>
@@ -2365,9 +2394,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -2376,9 +2405,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
@@ -2387,9 +2416,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>134</v>
@@ -2398,9 +2427,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>136</v>
@@ -2409,9 +2438,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>138</v>
@@ -2420,9 +2449,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>140</v>
@@ -2431,9 +2460,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2442,9 +2471,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>13</v>
@@ -2453,9 +2482,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>144</v>
@@ -2464,9 +2493,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>146</v>
@@ -2475,9 +2504,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>148</v>
@@ -2486,9 +2515,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
@@ -2497,9 +2526,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
@@ -2508,9 +2537,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>16</v>
@@ -2519,9 +2548,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>156</v>
@@ -2530,9 +2559,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>158</v>
@@ -2541,9 +2570,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>160</v>
@@ -2552,9 +2581,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>162</v>
@@ -2563,9 +2592,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>164</v>
@@ -2574,9 +2603,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>166</v>
@@ -2585,9 +2614,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>168</v>
@@ -2596,9 +2625,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>170</v>
@@ -2607,9 +2636,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>172</v>
@@ -2618,9 +2647,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>174</v>
@@ -2629,7 +2658,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>176</v>
       </c>
@@ -2637,7 +2669,10 @@
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>178</v>
       </c>
@@ -2645,7 +2680,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>180</v>
       </c>
@@ -2653,7 +2691,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>182</v>
       </c>
@@ -2661,9 +2702,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>184</v>
@@ -2672,9 +2713,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>185</v>
@@ -2683,9 +2724,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>188</v>
@@ -2694,9 +2735,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>190</v>
@@ -2705,9 +2746,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>192</v>
@@ -2716,9 +2757,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>194</v>
@@ -2727,7 +2768,10 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>196</v>
       </c>
@@ -2735,7 +2779,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>198</v>
       </c>
@@ -2743,7 +2790,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>279</v>
       </c>
@@ -2754,7 +2801,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>279</v>
       </c>
@@ -2765,7 +2812,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>279</v>
       </c>
@@ -2776,7 +2823,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>279</v>
       </c>
@@ -2787,7 +2834,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>279</v>
       </c>
@@ -2798,9 +2845,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>210</v>
@@ -2809,7 +2856,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>279</v>
       </c>
@@ -2820,7 +2867,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>279</v>
       </c>
@@ -2831,7 +2878,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>279</v>
       </c>
@@ -2842,7 +2889,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>217</v>
       </c>
@@ -2850,7 +2900,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>219</v>
       </c>
@@ -2858,7 +2911,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>221</v>
       </c>
@@ -2866,7 +2922,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>223</v>
       </c>
@@ -2874,7 +2933,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>225</v>
       </c>
@@ -2882,7 +2944,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>227</v>
       </c>
@@ -2890,7 +2955,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>229</v>
       </c>
@@ -2898,7 +2966,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>231</v>
       </c>
@@ -2906,7 +2977,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>279</v>
       </c>
@@ -2917,7 +2988,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>235</v>
       </c>
@@ -2925,9 +2999,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>237</v>
@@ -2936,7 +3010,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>239</v>
       </c>
@@ -2944,7 +3021,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>241</v>
       </c>
@@ -2952,9 +3032,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" ht="99.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>243</v>
@@ -2963,7 +3043,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="C111" s="1" t="s">
         <v>245</v>
       </c>
@@ -2971,9 +3054,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>247</v>
@@ -2982,7 +3065,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="57" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="C113" s="1" t="s">
         <v>249</v>
       </c>
@@ -2990,9 +3076,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>251</v>
@@ -3001,9 +3087,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>253</v>
@@ -3012,9 +3098,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>255</v>
@@ -3023,9 +3109,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>257</v>
@@ -3034,9 +3120,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>259</v>
@@ -3045,9 +3131,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" ht="85.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>261</v>
@@ -3056,7 +3142,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C120" s="1" t="s">
         <v>263</v>
       </c>
@@ -3064,9 +3153,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" ht="114" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>265</v>
@@ -3075,7 +3164,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>281</v>
+      </c>
       <c r="C122" s="1" t="s">
         <v>267</v>
       </c>
@@ -3083,9 +3175,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" ht="71.25" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>269</v>
@@ -3094,9 +3186,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>271</v>
@@ -3106,6 +3198,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F124" xr:uid="{6FBAD781-C2CF-4135-BBF5-18D40FA6CC26}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Financial Behavior &amp; Decision-Making"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>